--- a/Team-Data/2013-14/3-14-2013-14.xlsx
+++ b/Team-Data/2013-14/3-14-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,16 +811,16 @@
         <v>-0.9</v>
       </c>
       <c r="AD2" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AE2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF2" t="n">
         <v>18</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AH2" t="n">
         <v>10</v>
@@ -762,7 +829,7 @@
         <v>18</v>
       </c>
       <c r="AJ2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK2" t="n">
         <v>9</v>
@@ -783,13 +850,13 @@
         <v>22</v>
       </c>
       <c r="AQ2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AR2" t="n">
         <v>28</v>
       </c>
       <c r="AS2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT2" t="n">
         <v>28</v>
@@ -798,7 +865,7 @@
         <v>1</v>
       </c>
       <c r="AV2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW2" t="n">
         <v>8</v>
@@ -813,7 +880,7 @@
         <v>4</v>
       </c>
       <c r="BA2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BB2" t="n">
         <v>13</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-14-2013-14</t>
+          <t>2014-03-14</t>
         </is>
       </c>
     </row>
@@ -848,37 +915,37 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E3" t="n">
         <v>22</v>
       </c>
       <c r="F3" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G3" t="n">
-        <v>0.333</v>
+        <v>0.338</v>
       </c>
       <c r="H3" t="n">
         <v>48.1</v>
       </c>
       <c r="I3" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="J3" t="n">
-        <v>83.90000000000001</v>
+        <v>83.7</v>
       </c>
       <c r="K3" t="n">
-        <v>0.432</v>
+        <v>0.434</v>
       </c>
       <c r="L3" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="M3" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="N3" t="n">
-        <v>0.323</v>
+        <v>0.326</v>
       </c>
       <c r="O3" t="n">
         <v>16.3</v>
@@ -887,19 +954,19 @@
         <v>21.2</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.771</v>
+        <v>0.769</v>
       </c>
       <c r="R3" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="S3" t="n">
-        <v>31.1</v>
+        <v>31</v>
       </c>
       <c r="T3" t="n">
-        <v>43.1</v>
+        <v>42.9</v>
       </c>
       <c r="U3" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="V3" t="n">
         <v>15.4</v>
@@ -920,13 +987,13 @@
         <v>19.3</v>
       </c>
       <c r="AB3" t="n">
-        <v>95.2</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="AC3" t="n">
         <v>-4</v>
       </c>
       <c r="AD3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE3" t="n">
         <v>25</v>
@@ -947,49 +1014,49 @@
         <v>11</v>
       </c>
       <c r="AK3" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AL3" t="n">
         <v>24</v>
       </c>
       <c r="AM3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AN3" t="n">
         <v>28</v>
       </c>
       <c r="AO3" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AP3" t="n">
         <v>25</v>
       </c>
       <c r="AQ3" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AR3" t="n">
         <v>7</v>
       </c>
       <c r="AS3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AT3" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AU3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AV3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AX3" t="n">
         <v>21</v>
       </c>
       <c r="AY3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ3" t="n">
         <v>19</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-14-2013-14</t>
+          <t>2014-03-14</t>
         </is>
       </c>
     </row>
@@ -1108,10 +1175,10 @@
         <v>-1.3</v>
       </c>
       <c r="AD4" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AE4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF4" t="n">
         <v>14</v>
@@ -1141,7 +1208,7 @@
         <v>13</v>
       </c>
       <c r="AO4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP4" t="n">
         <v>11</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-14-2013-14</t>
+          <t>2014-03-14</t>
         </is>
       </c>
     </row>
@@ -1212,28 +1279,28 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E5" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F5" t="n">
         <v>34</v>
       </c>
       <c r="G5" t="n">
-        <v>0.485</v>
+        <v>0.477</v>
       </c>
       <c r="H5" t="n">
         <v>48.3</v>
       </c>
       <c r="I5" t="n">
-        <v>35.9</v>
+        <v>35.7</v>
       </c>
       <c r="J5" t="n">
-        <v>81.5</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K5" t="n">
-        <v>0.44</v>
+        <v>0.439</v>
       </c>
       <c r="L5" t="n">
         <v>6</v>
@@ -1242,28 +1309,28 @@
         <v>17</v>
       </c>
       <c r="N5" t="n">
-        <v>0.352</v>
+        <v>0.351</v>
       </c>
       <c r="O5" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="P5" t="n">
-        <v>24.7</v>
+        <v>24.8</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.732</v>
+        <v>0.733</v>
       </c>
       <c r="R5" t="n">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="S5" t="n">
-        <v>32.9</v>
+        <v>32.8</v>
       </c>
       <c r="T5" t="n">
-        <v>42</v>
+        <v>41.8</v>
       </c>
       <c r="U5" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="V5" t="n">
         <v>12.5</v>
@@ -1275,25 +1342,25 @@
         <v>5.1</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Z5" t="n">
         <v>18.2</v>
       </c>
       <c r="AA5" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="AB5" t="n">
-        <v>95.8</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="AC5" t="n">
-        <v>-1.4</v>
+        <v>-1.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AF5" t="n">
         <v>17</v>
@@ -1305,34 +1372,34 @@
         <v>17</v>
       </c>
       <c r="AI5" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ5" t="n">
         <v>24</v>
       </c>
       <c r="AK5" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL5" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AM5" t="n">
         <v>28</v>
       </c>
       <c r="AN5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO5" t="n">
         <v>12</v>
       </c>
       <c r="AP5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AQ5" t="n">
         <v>24</v>
       </c>
       <c r="AR5" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AS5" t="n">
         <v>9</v>
@@ -1353,19 +1420,19 @@
         <v>11</v>
       </c>
       <c r="AY5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AZ5" t="n">
         <v>2</v>
       </c>
       <c r="BA5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BB5" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BC5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-14-2013-14</t>
+          <t>2014-03-14</t>
         </is>
       </c>
     </row>
@@ -1472,10 +1539,10 @@
         <v>1.1</v>
       </c>
       <c r="AD6" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AE6" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AF6" t="n">
         <v>13</v>
@@ -1484,7 +1551,7 @@
         <v>13</v>
       </c>
       <c r="AH6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI6" t="n">
         <v>30</v>
@@ -1493,7 +1560,7 @@
         <v>27</v>
       </c>
       <c r="AK6" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL6" t="n">
         <v>26</v>
@@ -1514,7 +1581,7 @@
         <v>9</v>
       </c>
       <c r="AR6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AS6" t="n">
         <v>8</v>
@@ -1529,10 +1596,10 @@
         <v>26</v>
       </c>
       <c r="AW6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AX6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AY6" t="n">
         <v>29</v>
@@ -1541,7 +1608,7 @@
         <v>5</v>
       </c>
       <c r="BA6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB6" t="n">
         <v>30</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-14-2013-14</t>
+          <t>2014-03-14</t>
         </is>
       </c>
     </row>
@@ -1576,22 +1643,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F7" t="n">
         <v>40</v>
       </c>
       <c r="G7" t="n">
-        <v>0.394</v>
+        <v>0.385</v>
       </c>
       <c r="H7" t="n">
         <v>48.7</v>
       </c>
       <c r="I7" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="J7" t="n">
         <v>85.2</v>
@@ -1606,22 +1673,22 @@
         <v>19.9</v>
       </c>
       <c r="N7" t="n">
-        <v>0.357</v>
+        <v>0.355</v>
       </c>
       <c r="O7" t="n">
         <v>17.2</v>
       </c>
       <c r="P7" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.752</v>
+        <v>0.753</v>
       </c>
       <c r="R7" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="S7" t="n">
-        <v>31.9</v>
+        <v>31.8</v>
       </c>
       <c r="T7" t="n">
         <v>44.4</v>
@@ -1633,7 +1700,7 @@
         <v>14.4</v>
       </c>
       <c r="W7" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="X7" t="n">
         <v>3.8</v>
@@ -1651,22 +1718,22 @@
         <v>97.2</v>
       </c>
       <c r="AC7" t="n">
-        <v>-4.2</v>
+        <v>-4.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE7" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AF7" t="n">
         <v>21</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AI7" t="n">
         <v>23</v>
@@ -1708,10 +1775,10 @@
         <v>25</v>
       </c>
       <c r="AV7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AW7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AX7" t="n">
         <v>29</v>
@@ -1720,7 +1787,7 @@
         <v>27</v>
       </c>
       <c r="AZ7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA7" t="n">
         <v>22</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-14-2013-14</t>
+          <t>2014-03-14</t>
         </is>
       </c>
     </row>
@@ -1836,25 +1903,25 @@
         <v>1.9</v>
       </c>
       <c r="AD8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE8" t="n">
         <v>9</v>
       </c>
       <c r="AF8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH8" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AI8" t="n">
         <v>2</v>
       </c>
       <c r="AJ8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK8" t="n">
         <v>6</v>
@@ -1881,7 +1948,7 @@
         <v>23</v>
       </c>
       <c r="AS8" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AT8" t="n">
         <v>27</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-14-2013-14</t>
+          <t>2014-03-14</t>
         </is>
       </c>
     </row>
@@ -1940,16 +2007,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E9" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F9" t="n">
         <v>36</v>
       </c>
       <c r="G9" t="n">
-        <v>0.446</v>
+        <v>0.438</v>
       </c>
       <c r="H9" t="n">
         <v>48.2</v>
@@ -1958,7 +2025,7 @@
         <v>38.2</v>
       </c>
       <c r="J9" t="n">
-        <v>85.40000000000001</v>
+        <v>85.5</v>
       </c>
       <c r="K9" t="n">
         <v>0.447</v>
@@ -1973,13 +2040,13 @@
         <v>0.361</v>
       </c>
       <c r="O9" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="P9" t="n">
         <v>26.3</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.719</v>
+        <v>0.716</v>
       </c>
       <c r="R9" t="n">
         <v>12.3</v>
@@ -1988,7 +2055,7 @@
         <v>33</v>
       </c>
       <c r="T9" t="n">
-        <v>45.3</v>
+        <v>45.4</v>
       </c>
       <c r="U9" t="n">
         <v>22.1</v>
@@ -1997,10 +2064,10 @@
         <v>15.7</v>
       </c>
       <c r="W9" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="X9" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Y9" t="n">
         <v>5.6</v>
@@ -2009,16 +2076,16 @@
         <v>23</v>
       </c>
       <c r="AA9" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="AB9" t="n">
-        <v>103.7</v>
+        <v>103.6</v>
       </c>
       <c r="AC9" t="n">
-        <v>-2.1</v>
+        <v>-2.2</v>
       </c>
       <c r="AD9" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AE9" t="n">
         <v>18</v>
@@ -2027,10 +2094,10 @@
         <v>19</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH9" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI9" t="n">
         <v>12</v>
@@ -2039,7 +2106,7 @@
         <v>5</v>
       </c>
       <c r="AK9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL9" t="n">
         <v>10</v>
@@ -2048,7 +2115,7 @@
         <v>9</v>
       </c>
       <c r="AN9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AO9" t="n">
         <v>8</v>
@@ -2066,7 +2133,7 @@
         <v>7</v>
       </c>
       <c r="AT9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU9" t="n">
         <v>12</v>
@@ -2075,10 +2142,10 @@
         <v>27</v>
       </c>
       <c r="AW9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AX9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY9" t="n">
         <v>24</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-14-2013-14</t>
+          <t>2014-03-14</t>
         </is>
       </c>
     </row>
@@ -2200,19 +2267,19 @@
         <v>-2.9</v>
       </c>
       <c r="AD10" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AE10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF10" t="n">
         <v>21</v>
       </c>
       <c r="AG10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH10" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AI10" t="n">
         <v>8</v>
@@ -2221,7 +2288,7 @@
         <v>4</v>
       </c>
       <c r="AK10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL10" t="n">
         <v>29</v>
@@ -2254,7 +2321,7 @@
         <v>21</v>
       </c>
       <c r="AV10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AW10" t="n">
         <v>5</v>
@@ -2263,7 +2330,7 @@
         <v>7</v>
       </c>
       <c r="AY10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AZ10" t="n">
         <v>15</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-14-2013-14</t>
+          <t>2014-03-14</t>
         </is>
       </c>
     </row>
@@ -2304,16 +2371,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E11" t="n">
         <v>41</v>
       </c>
       <c r="F11" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G11" t="n">
-        <v>0.612</v>
+        <v>0.621</v>
       </c>
       <c r="H11" t="n">
         <v>48.3</v>
@@ -2322,16 +2389,16 @@
         <v>39</v>
       </c>
       <c r="J11" t="n">
-        <v>85</v>
+        <v>85.2</v>
       </c>
       <c r="K11" t="n">
         <v>0.458</v>
       </c>
       <c r="L11" t="n">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="M11" t="n">
-        <v>24.3</v>
+        <v>24.2</v>
       </c>
       <c r="N11" t="n">
         <v>0.377</v>
@@ -2340,19 +2407,19 @@
         <v>16.3</v>
       </c>
       <c r="P11" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.745</v>
+        <v>0.746</v>
       </c>
       <c r="R11" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="S11" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="T11" t="n">
-        <v>45.3</v>
+        <v>45.4</v>
       </c>
       <c r="U11" t="n">
         <v>23.2</v>
@@ -2376,10 +2443,10 @@
         <v>20</v>
       </c>
       <c r="AB11" t="n">
-        <v>103.4</v>
+        <v>103.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="AD11" t="n">
         <v>1</v>
@@ -2397,7 +2464,7 @@
         <v>18</v>
       </c>
       <c r="AI11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AJ11" t="n">
         <v>7</v>
@@ -2415,7 +2482,7 @@
         <v>6</v>
       </c>
       <c r="AO11" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP11" t="n">
         <v>20</v>
@@ -2424,25 +2491,25 @@
         <v>23</v>
       </c>
       <c r="AR11" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AS11" t="n">
         <v>3</v>
       </c>
       <c r="AT11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU11" t="n">
         <v>8</v>
       </c>
       <c r="AV11" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW11" t="n">
         <v>13</v>
       </c>
       <c r="AX11" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AY11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-14-2013-14</t>
+          <t>2014-03-14</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>4.4</v>
       </c>
       <c r="AD12" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AE12" t="n">
         <v>5</v>
@@ -2576,7 +2643,7 @@
         <v>6</v>
       </c>
       <c r="AH12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI12" t="n">
         <v>17</v>
@@ -2594,7 +2661,7 @@
         <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO12" t="n">
         <v>1</v>
@@ -2612,7 +2679,7 @@
         <v>4</v>
       </c>
       <c r="AT12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AU12" t="n">
         <v>22</v>
@@ -2621,25 +2688,25 @@
         <v>29</v>
       </c>
       <c r="AW12" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AX12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY12" t="n">
         <v>22</v>
       </c>
       <c r="AZ12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA12" t="n">
         <v>1</v>
       </c>
       <c r="BB12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-14-2013-14</t>
+          <t>2014-03-14</t>
         </is>
       </c>
     </row>
@@ -2668,28 +2735,28 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E13" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F13" t="n">
         <v>17</v>
       </c>
       <c r="G13" t="n">
-        <v>0.738</v>
+        <v>0.734</v>
       </c>
       <c r="H13" t="n">
         <v>48.2</v>
       </c>
       <c r="I13" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="J13" t="n">
-        <v>80.59999999999999</v>
+        <v>80.8</v>
       </c>
       <c r="K13" t="n">
-        <v>0.456</v>
+        <v>0.455</v>
       </c>
       <c r="L13" t="n">
         <v>6.8</v>
@@ -2698,40 +2765,40 @@
         <v>19.2</v>
       </c>
       <c r="N13" t="n">
-        <v>0.354</v>
+        <v>0.353</v>
       </c>
       <c r="O13" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="P13" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.78</v>
+        <v>0.783</v>
       </c>
       <c r="R13" t="n">
-        <v>10.2</v>
+        <v>10.3</v>
       </c>
       <c r="S13" t="n">
-        <v>35</v>
+        <v>34.9</v>
       </c>
       <c r="T13" t="n">
         <v>45.1</v>
       </c>
       <c r="U13" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="V13" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="W13" t="n">
         <v>7</v>
       </c>
       <c r="X13" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Z13" t="n">
         <v>20.3</v>
@@ -2740,22 +2807,22 @@
         <v>21.9</v>
       </c>
       <c r="AB13" t="n">
-        <v>98.59999999999999</v>
+        <v>98.5</v>
       </c>
       <c r="AC13" t="n">
         <v>6.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AE13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF13" t="n">
         <v>2</v>
       </c>
       <c r="AG13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH13" t="n">
         <v>19</v>
@@ -2767,7 +2834,7 @@
         <v>26</v>
       </c>
       <c r="AK13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL13" t="n">
         <v>22</v>
@@ -2776,7 +2843,7 @@
         <v>24</v>
       </c>
       <c r="AN13" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO13" t="n">
         <v>11</v>
@@ -2785,7 +2852,7 @@
         <v>14</v>
       </c>
       <c r="AQ13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AR13" t="n">
         <v>22</v>
@@ -2797,16 +2864,16 @@
         <v>7</v>
       </c>
       <c r="AU13" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AV13" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AW13" t="n">
         <v>24</v>
       </c>
       <c r="AX13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY13" t="n">
         <v>13</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-14-2013-14</t>
+          <t>2014-03-14</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E14" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F14" t="n">
         <v>20</v>
       </c>
       <c r="G14" t="n">
-        <v>0.701</v>
+        <v>0.697</v>
       </c>
       <c r="H14" t="n">
         <v>48.2</v>
@@ -2868,10 +2935,10 @@
         <v>39.1</v>
       </c>
       <c r="J14" t="n">
-        <v>82</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="K14" t="n">
-        <v>0.477</v>
+        <v>0.476</v>
       </c>
       <c r="L14" t="n">
         <v>8.199999999999999</v>
@@ -2883,28 +2950,28 @@
         <v>0.352</v>
       </c>
       <c r="O14" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="P14" t="n">
-        <v>29.3</v>
+        <v>29.4</v>
       </c>
       <c r="Q14" t="n">
         <v>0.728</v>
       </c>
       <c r="R14" t="n">
-        <v>10.4</v>
+        <v>10.5</v>
       </c>
       <c r="S14" t="n">
-        <v>32.6</v>
+        <v>32.7</v>
       </c>
       <c r="T14" t="n">
-        <v>43</v>
+        <v>43.2</v>
       </c>
       <c r="U14" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="V14" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="W14" t="n">
         <v>8.5</v>
@@ -2916,13 +2983,13 @@
         <v>3.3</v>
       </c>
       <c r="Z14" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="AA14" t="n">
-        <v>23.8</v>
+        <v>23.9</v>
       </c>
       <c r="AB14" t="n">
-        <v>107.7</v>
+        <v>107.9</v>
       </c>
       <c r="AC14" t="n">
         <v>7.2</v>
@@ -2937,7 +3004,7 @@
         <v>5</v>
       </c>
       <c r="AG14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH14" t="n">
         <v>23</v>
@@ -2946,7 +3013,7 @@
         <v>5</v>
       </c>
       <c r="AJ14" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK14" t="n">
         <v>3</v>
@@ -2958,7 +3025,7 @@
         <v>8</v>
       </c>
       <c r="AN14" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO14" t="n">
         <v>3</v>
@@ -2967,16 +3034,16 @@
         <v>2</v>
       </c>
       <c r="AQ14" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AR14" t="n">
         <v>21</v>
       </c>
       <c r="AS14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT14" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AU14" t="n">
         <v>3</v>
@@ -2988,7 +3055,7 @@
         <v>7</v>
       </c>
       <c r="AX14" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY14" t="n">
         <v>2</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-14-2013-14</t>
+          <t>2014-03-14</t>
         </is>
       </c>
     </row>
@@ -3032,37 +3099,37 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E15" t="n">
         <v>22</v>
       </c>
       <c r="F15" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G15" t="n">
-        <v>0.333</v>
+        <v>0.338</v>
       </c>
       <c r="H15" t="n">
         <v>48.1</v>
       </c>
       <c r="I15" t="n">
-        <v>37.7</v>
+        <v>37.8</v>
       </c>
       <c r="J15" t="n">
-        <v>84.40000000000001</v>
+        <v>84.3</v>
       </c>
       <c r="K15" t="n">
-        <v>0.447</v>
+        <v>0.449</v>
       </c>
       <c r="L15" t="n">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="M15" t="n">
         <v>24.7</v>
       </c>
       <c r="N15" t="n">
-        <v>0.382</v>
+        <v>0.385</v>
       </c>
       <c r="O15" t="n">
         <v>16.9</v>
@@ -3086,10 +3153,10 @@
         <v>23.8</v>
       </c>
       <c r="V15" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="W15" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="X15" t="n">
         <v>5.7</v>
@@ -3098,19 +3165,19 @@
         <v>4.6</v>
       </c>
       <c r="Z15" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AA15" t="n">
         <v>19.5</v>
       </c>
       <c r="AB15" t="n">
-        <v>101.8</v>
+        <v>102</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6.7</v>
+        <v>-6.2</v>
       </c>
       <c r="AD15" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE15" t="n">
         <v>25</v>
@@ -3125,13 +3192,13 @@
         <v>28</v>
       </c>
       <c r="AI15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ15" t="n">
         <v>9</v>
       </c>
       <c r="AK15" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AL15" t="n">
         <v>2</v>
@@ -3149,10 +3216,10 @@
         <v>19</v>
       </c>
       <c r="AQ15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AR15" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AS15" t="n">
         <v>13</v>
@@ -3164,7 +3231,7 @@
         <v>4</v>
       </c>
       <c r="AV15" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AW15" t="n">
         <v>26</v>
@@ -3179,7 +3246,7 @@
         <v>10</v>
       </c>
       <c r="BA15" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BB15" t="n">
         <v>12</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-14-2013-14</t>
+          <t>2014-03-14</t>
         </is>
       </c>
     </row>
@@ -3214,85 +3281,85 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E16" t="n">
         <v>38</v>
       </c>
       <c r="F16" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G16" t="n">
-        <v>0.585</v>
+        <v>0.594</v>
       </c>
       <c r="H16" t="n">
         <v>48.3</v>
       </c>
       <c r="I16" t="n">
-        <v>37.7</v>
+        <v>37.8</v>
       </c>
       <c r="J16" t="n">
-        <v>81.8</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K16" t="n">
-        <v>0.461</v>
+        <v>0.462</v>
       </c>
       <c r="L16" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="M16" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="N16" t="n">
-        <v>0.357</v>
+        <v>0.358</v>
       </c>
       <c r="O16" t="n">
         <v>15.2</v>
       </c>
       <c r="P16" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.749</v>
+        <v>0.751</v>
       </c>
       <c r="R16" t="n">
         <v>11.4</v>
       </c>
       <c r="S16" t="n">
-        <v>30.8</v>
+        <v>30.9</v>
       </c>
       <c r="T16" t="n">
-        <v>42.2</v>
+        <v>42.3</v>
       </c>
       <c r="U16" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="V16" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="W16" t="n">
         <v>7.7</v>
       </c>
       <c r="X16" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y16" t="n">
         <v>5.3</v>
       </c>
       <c r="Z16" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="AA16" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="AB16" t="n">
-        <v>95.7</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="AD16" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AE16" t="n">
         <v>10</v>
@@ -3301,16 +3368,16 @@
         <v>9</v>
       </c>
       <c r="AG16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH16" t="n">
         <v>16</v>
       </c>
       <c r="AI16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK16" t="n">
         <v>7</v>
@@ -3328,10 +3395,10 @@
         <v>29</v>
       </c>
       <c r="AP16" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AQ16" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AR16" t="n">
         <v>14</v>
@@ -3340,13 +3407,13 @@
         <v>22</v>
       </c>
       <c r="AT16" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU16" t="n">
         <v>15</v>
       </c>
       <c r="AV16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW16" t="n">
         <v>16</v>
@@ -3364,7 +3431,7 @@
         <v>29</v>
       </c>
       <c r="BB16" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BC16" t="n">
         <v>14</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-14-2013-14</t>
+          <t>2014-03-14</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E17" t="n">
         <v>44</v>
       </c>
       <c r="F17" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G17" t="n">
-        <v>0.698</v>
+        <v>0.71</v>
       </c>
       <c r="H17" t="n">
         <v>48.5</v>
@@ -3423,16 +3490,16 @@
         <v>8.1</v>
       </c>
       <c r="M17" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="N17" t="n">
-        <v>0.37</v>
+        <v>0.371</v>
       </c>
       <c r="O17" t="n">
         <v>17.8</v>
       </c>
       <c r="P17" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="Q17" t="n">
         <v>0.762</v>
@@ -3450,7 +3517,7 @@
         <v>23.1</v>
       </c>
       <c r="V17" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="W17" t="n">
         <v>9.1</v>
@@ -3471,10 +3538,10 @@
         <v>103.9</v>
       </c>
       <c r="AC17" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AE17" t="n">
         <v>5</v>
@@ -3483,13 +3550,13 @@
         <v>4</v>
       </c>
       <c r="AG17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH17" t="n">
         <v>9</v>
       </c>
       <c r="AI17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AJ17" t="n">
         <v>30</v>
@@ -3501,7 +3568,7 @@
         <v>14</v>
       </c>
       <c r="AM17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AN17" t="n">
         <v>11</v>
@@ -3528,7 +3595,7 @@
         <v>10</v>
       </c>
       <c r="AV17" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AW17" t="n">
         <v>2</v>
@@ -3540,7 +3607,7 @@
         <v>1</v>
       </c>
       <c r="AZ17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA17" t="n">
         <v>15</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-14-2013-14</t>
+          <t>2014-03-14</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-8</v>
       </c>
       <c r="AD18" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3668,7 +3735,7 @@
         <v>30</v>
       </c>
       <c r="AH18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI18" t="n">
         <v>28</v>
@@ -3686,7 +3753,7 @@
         <v>19</v>
       </c>
       <c r="AN18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO18" t="n">
         <v>25</v>
@@ -3698,7 +3765,7 @@
         <v>16</v>
       </c>
       <c r="AR18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AS18" t="n">
         <v>28</v>
@@ -3716,10 +3783,10 @@
         <v>28</v>
       </c>
       <c r="AX18" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AY18" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AZ18" t="n">
         <v>18</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-14-2013-14</t>
+          <t>2014-03-14</t>
         </is>
       </c>
     </row>
@@ -3760,16 +3827,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E19" t="n">
         <v>32</v>
       </c>
       <c r="F19" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5</v>
+        <v>0.508</v>
       </c>
       <c r="H19" t="n">
         <v>48.2</v>
@@ -3778,7 +3845,7 @@
         <v>38.6</v>
       </c>
       <c r="J19" t="n">
-        <v>87.7</v>
+        <v>87.8</v>
       </c>
       <c r="K19" t="n">
         <v>0.44</v>
@@ -3787,34 +3854,34 @@
         <v>7.4</v>
       </c>
       <c r="M19" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="O19" t="n">
         <v>21.7</v>
       </c>
-      <c r="N19" t="n">
-        <v>0.341</v>
-      </c>
-      <c r="O19" t="n">
-        <v>21.6</v>
-      </c>
       <c r="P19" t="n">
-        <v>27.8</v>
+        <v>27.9</v>
       </c>
       <c r="Q19" t="n">
         <v>0.777</v>
       </c>
       <c r="R19" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="S19" t="n">
         <v>32.5</v>
       </c>
       <c r="T19" t="n">
-        <v>45.3</v>
+        <v>45.4</v>
       </c>
       <c r="U19" t="n">
         <v>23.3</v>
       </c>
       <c r="V19" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="W19" t="n">
         <v>8.699999999999999</v>
@@ -3826,16 +3893,16 @@
         <v>5.8</v>
       </c>
       <c r="Z19" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="AA19" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="AB19" t="n">
-        <v>106.1</v>
+        <v>106.3</v>
       </c>
       <c r="AC19" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="AD19" t="n">
         <v>26</v>
@@ -3844,7 +3911,7 @@
         <v>16</v>
       </c>
       <c r="AF19" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AG19" t="n">
         <v>16</v>
@@ -3853,19 +3920,19 @@
         <v>24</v>
       </c>
       <c r="AI19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ19" t="n">
         <v>2</v>
       </c>
       <c r="AK19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL19" t="n">
         <v>17</v>
       </c>
       <c r="AM19" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AN19" t="n">
         <v>26</v>
@@ -3886,13 +3953,13 @@
         <v>12</v>
       </c>
       <c r="AT19" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AU19" t="n">
         <v>6</v>
       </c>
       <c r="AV19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW19" t="n">
         <v>4</v>
@@ -3910,7 +3977,7 @@
         <v>3</v>
       </c>
       <c r="BB19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BC19" t="n">
         <v>9</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-14-2013-14</t>
+          <t>2014-03-14</t>
         </is>
       </c>
     </row>
@@ -3942,16 +4009,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E20" t="n">
         <v>26</v>
       </c>
       <c r="F20" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4</v>
+        <v>0.406</v>
       </c>
       <c r="H20" t="n">
         <v>48.4</v>
@@ -3960,10 +4027,10 @@
         <v>37.9</v>
       </c>
       <c r="J20" t="n">
-        <v>83</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K20" t="n">
-        <v>0.457</v>
+        <v>0.456</v>
       </c>
       <c r="L20" t="n">
         <v>6</v>
@@ -3972,19 +4039,19 @@
         <v>16</v>
       </c>
       <c r="N20" t="n">
-        <v>0.375</v>
+        <v>0.376</v>
       </c>
       <c r="O20" t="n">
         <v>17.7</v>
       </c>
       <c r="P20" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.77</v>
+        <v>0.769</v>
       </c>
       <c r="R20" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="S20" t="n">
         <v>30.2</v>
@@ -4002,7 +4069,7 @@
         <v>8</v>
       </c>
       <c r="X20" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="Y20" t="n">
         <v>6</v>
@@ -4014,13 +4081,13 @@
         <v>20</v>
       </c>
       <c r="AB20" t="n">
-        <v>99.5</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="AC20" t="n">
-        <v>-2.6</v>
+        <v>-2.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AE20" t="n">
         <v>20</v>
@@ -4044,13 +4111,13 @@
         <v>11</v>
       </c>
       <c r="AL20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AM20" t="n">
         <v>29</v>
       </c>
       <c r="AN20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO20" t="n">
         <v>15</v>
@@ -4065,7 +4132,7 @@
         <v>8</v>
       </c>
       <c r="AS20" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AT20" t="n">
         <v>21</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-14-2013-14</t>
+          <t>2014-03-14</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-1.6</v>
       </c>
       <c r="AD21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE21" t="n">
         <v>20</v>
@@ -4229,10 +4296,10 @@
         <v>5</v>
       </c>
       <c r="AM21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AN21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO21" t="n">
         <v>30</v>
@@ -4241,7 +4308,7 @@
         <v>30</v>
       </c>
       <c r="AQ21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AR21" t="n">
         <v>19</v>
@@ -4253,7 +4320,7 @@
         <v>26</v>
       </c>
       <c r="AU21" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AV21" t="n">
         <v>2</v>
@@ -4277,7 +4344,7 @@
         <v>20</v>
       </c>
       <c r="BC21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-14-2013-14</t>
+          <t>2014-03-14</t>
         </is>
       </c>
     </row>
@@ -4384,10 +4451,10 @@
         <v>6.9</v>
       </c>
       <c r="AD22" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AE22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF22" t="n">
         <v>2</v>
@@ -4396,7 +4463,7 @@
         <v>2</v>
       </c>
       <c r="AH22" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI22" t="n">
         <v>4</v>
@@ -4414,19 +4481,19 @@
         <v>16</v>
       </c>
       <c r="AN22" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO22" t="n">
         <v>5</v>
       </c>
       <c r="AP22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AQ22" t="n">
         <v>2</v>
       </c>
       <c r="AR22" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AS22" t="n">
         <v>2</v>
@@ -4441,7 +4508,7 @@
         <v>28</v>
       </c>
       <c r="AW22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX22" t="n">
         <v>2</v>
@@ -4456,10 +4523,10 @@
         <v>18</v>
       </c>
       <c r="BB22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-14-2013-14</t>
+          <t>2014-03-14</t>
         </is>
       </c>
     </row>
@@ -4488,25 +4555,25 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E23" t="n">
         <v>19</v>
       </c>
       <c r="F23" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G23" t="n">
-        <v>0.284</v>
+        <v>0.288</v>
       </c>
       <c r="H23" t="n">
         <v>48.7</v>
       </c>
       <c r="I23" t="n">
-        <v>37.1</v>
+        <v>37</v>
       </c>
       <c r="J23" t="n">
-        <v>83.59999999999999</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K23" t="n">
         <v>0.444</v>
@@ -4515,16 +4582,16 @@
         <v>6.9</v>
       </c>
       <c r="M23" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="N23" t="n">
-        <v>0.348</v>
+        <v>0.349</v>
       </c>
       <c r="O23" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="P23" t="n">
-        <v>20.8</v>
+        <v>21</v>
       </c>
       <c r="Q23" t="n">
         <v>0.767</v>
@@ -4536,16 +4603,16 @@
         <v>32.7</v>
       </c>
       <c r="T23" t="n">
-        <v>42.3</v>
+        <v>42.2</v>
       </c>
       <c r="U23" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="V23" t="n">
         <v>14.4</v>
       </c>
       <c r="W23" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="X23" t="n">
         <v>4.2</v>
@@ -4557,10 +4624,10 @@
         <v>20.2</v>
       </c>
       <c r="AA23" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="AB23" t="n">
-        <v>97.09999999999999</v>
+        <v>97</v>
       </c>
       <c r="AC23" t="n">
         <v>-5.2</v>
@@ -4578,13 +4645,13 @@
         <v>28</v>
       </c>
       <c r="AH23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AI23" t="n">
         <v>20</v>
       </c>
       <c r="AJ23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK23" t="n">
         <v>21</v>
@@ -4593,7 +4660,7 @@
         <v>20</v>
       </c>
       <c r="AM23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AN23" t="n">
         <v>24</v>
@@ -4602,7 +4669,7 @@
         <v>26</v>
       </c>
       <c r="AP23" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AQ23" t="n">
         <v>13</v>
@@ -4611,16 +4678,16 @@
         <v>24</v>
       </c>
       <c r="AS23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AT23" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AU23" t="n">
         <v>20</v>
       </c>
       <c r="AV23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW23" t="n">
         <v>14</v>
@@ -4632,7 +4699,7 @@
         <v>25</v>
       </c>
       <c r="AZ23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA23" t="n">
         <v>30</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-14-2013-14</t>
+          <t>2014-03-14</t>
         </is>
       </c>
     </row>
@@ -4670,34 +4737,34 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E24" t="n">
         <v>15</v>
       </c>
       <c r="F24" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G24" t="n">
-        <v>0.231</v>
+        <v>0.234</v>
       </c>
       <c r="H24" t="n">
         <v>48.5</v>
       </c>
       <c r="I24" t="n">
-        <v>38</v>
+        <v>38.1</v>
       </c>
       <c r="J24" t="n">
         <v>88</v>
       </c>
       <c r="K24" t="n">
-        <v>0.432</v>
+        <v>0.433</v>
       </c>
       <c r="L24" t="n">
         <v>6.8</v>
       </c>
       <c r="M24" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="N24" t="n">
         <v>0.306</v>
@@ -4706,49 +4773,49 @@
         <v>16.9</v>
       </c>
       <c r="P24" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.719</v>
+        <v>0.717</v>
       </c>
       <c r="R24" t="n">
         <v>11.8</v>
       </c>
       <c r="S24" t="n">
-        <v>31.6</v>
+        <v>31.8</v>
       </c>
       <c r="T24" t="n">
-        <v>43.4</v>
+        <v>43.6</v>
       </c>
       <c r="U24" t="n">
         <v>22</v>
       </c>
       <c r="V24" t="n">
-        <v>17.3</v>
+        <v>17.5</v>
       </c>
       <c r="W24" t="n">
         <v>9.300000000000001</v>
       </c>
       <c r="X24" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="Y24" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="Z24" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="AA24" t="n">
         <v>20.9</v>
       </c>
       <c r="AB24" t="n">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="AC24" t="n">
-        <v>-11.2</v>
+        <v>-11.3</v>
       </c>
       <c r="AD24" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AE24" t="n">
         <v>29</v>
@@ -4760,7 +4827,7 @@
         <v>29</v>
       </c>
       <c r="AH24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI24" t="n">
         <v>13</v>
@@ -4769,7 +4836,7 @@
         <v>1</v>
       </c>
       <c r="AK24" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL24" t="n">
         <v>23</v>
@@ -4790,7 +4857,7 @@
         <v>27</v>
       </c>
       <c r="AR24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AS24" t="n">
         <v>16</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-14-2013-14</t>
+          <t>2014-03-14</t>
         </is>
       </c>
     </row>
@@ -4852,58 +4919,58 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E25" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F25" t="n">
         <v>28</v>
       </c>
       <c r="G25" t="n">
-        <v>0.569</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="H25" t="n">
         <v>48.2</v>
       </c>
       <c r="I25" t="n">
-        <v>38.6</v>
+        <v>38.7</v>
       </c>
       <c r="J25" t="n">
-        <v>84</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="K25" t="n">
         <v>0.46</v>
       </c>
       <c r="L25" t="n">
-        <v>9.300000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="M25" t="n">
         <v>25.1</v>
       </c>
       <c r="N25" t="n">
-        <v>0.371</v>
+        <v>0.374</v>
       </c>
       <c r="O25" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="P25" t="n">
-        <v>24.6</v>
+        <v>24.7</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.756</v>
+        <v>0.757</v>
       </c>
       <c r="R25" t="n">
         <v>11.6</v>
       </c>
       <c r="S25" t="n">
-        <v>31.6</v>
+        <v>31.5</v>
       </c>
       <c r="T25" t="n">
-        <v>43.2</v>
+        <v>43.1</v>
       </c>
       <c r="U25" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="V25" t="n">
         <v>15.3</v>
@@ -4918,19 +4985,19 @@
         <v>4.2</v>
       </c>
       <c r="Z25" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="AA25" t="n">
         <v>21.4</v>
       </c>
       <c r="AB25" t="n">
-        <v>105.2</v>
+        <v>105.5</v>
       </c>
       <c r="AC25" t="n">
         <v>2.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AE25" t="n">
         <v>11</v>
@@ -4954,16 +5021,16 @@
         <v>8</v>
       </c>
       <c r="AL25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM25" t="n">
         <v>3</v>
       </c>
       <c r="AN25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP25" t="n">
         <v>10</v>
@@ -4978,7 +5045,7 @@
         <v>17</v>
       </c>
       <c r="AT25" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AU25" t="n">
         <v>29</v>
@@ -4990,13 +5057,13 @@
         <v>9</v>
       </c>
       <c r="AX25" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY25" t="n">
         <v>9</v>
       </c>
       <c r="AZ25" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BA25" t="n">
         <v>8</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-14-2013-14</t>
+          <t>2014-03-14</t>
         </is>
       </c>
     </row>
@@ -5034,37 +5101,37 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E26" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F26" t="n">
         <v>23</v>
       </c>
       <c r="G26" t="n">
-        <v>0.652</v>
+        <v>0.646</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
       </c>
       <c r="I26" t="n">
-        <v>39.3</v>
+        <v>39.4</v>
       </c>
       <c r="J26" t="n">
-        <v>87.5</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="K26" t="n">
-        <v>0.45</v>
+        <v>0.449</v>
       </c>
       <c r="L26" t="n">
-        <v>9.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="M26" t="n">
-        <v>25</v>
+        <v>24.8</v>
       </c>
       <c r="N26" t="n">
-        <v>0.375</v>
+        <v>0.374</v>
       </c>
       <c r="O26" t="n">
         <v>19.2</v>
@@ -5076,13 +5143,13 @@
         <v>0.8179999999999999</v>
       </c>
       <c r="R26" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="S26" t="n">
         <v>33.7</v>
       </c>
       <c r="T26" t="n">
-        <v>46.4</v>
+        <v>46.6</v>
       </c>
       <c r="U26" t="n">
         <v>23.2</v>
@@ -5103,16 +5170,16 @@
         <v>19.7</v>
       </c>
       <c r="AA26" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="AB26" t="n">
-        <v>107.3</v>
+        <v>107.2</v>
       </c>
       <c r="AC26" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="AD26" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE26" t="n">
         <v>7</v>
@@ -5124,7 +5191,7 @@
         <v>7</v>
       </c>
       <c r="AH26" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI26" t="n">
         <v>3</v>
@@ -5136,13 +5203,13 @@
         <v>15</v>
       </c>
       <c r="AL26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AM26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AN26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO26" t="n">
         <v>6</v>
@@ -5157,7 +5224,7 @@
         <v>3</v>
       </c>
       <c r="AS26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT26" t="n">
         <v>1</v>
@@ -5175,7 +5242,7 @@
         <v>13</v>
       </c>
       <c r="AY26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ26" t="n">
         <v>7</v>
@@ -5187,7 +5254,7 @@
         <v>2</v>
       </c>
       <c r="BC26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-14-2013-14</t>
+          <t>2014-03-14</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-2.3</v>
       </c>
       <c r="AD27" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AE27" t="n">
         <v>24</v>
@@ -5306,7 +5373,7 @@
         <v>24</v>
       </c>
       <c r="AH27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI27" t="n">
         <v>21</v>
@@ -5315,7 +5382,7 @@
         <v>18</v>
       </c>
       <c r="AK27" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL27" t="n">
         <v>25</v>
@@ -5333,7 +5400,7 @@
         <v>4</v>
       </c>
       <c r="AQ27" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AR27" t="n">
         <v>6</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-14-2013-14</t>
+          <t>2014-03-14</t>
         </is>
       </c>
     </row>
@@ -5398,25 +5465,25 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E28" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F28" t="n">
         <v>16</v>
       </c>
       <c r="G28" t="n">
-        <v>0.754</v>
+        <v>0.75</v>
       </c>
       <c r="H28" t="n">
         <v>48.2</v>
       </c>
       <c r="I28" t="n">
-        <v>40.3</v>
+        <v>40.2</v>
       </c>
       <c r="J28" t="n">
-        <v>82.5</v>
+        <v>82.3</v>
       </c>
       <c r="K28" t="n">
         <v>0.488</v>
@@ -5425,31 +5492,31 @@
         <v>8.300000000000001</v>
       </c>
       <c r="M28" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="N28" t="n">
-        <v>0.398</v>
+        <v>0.396</v>
       </c>
       <c r="O28" t="n">
         <v>16</v>
       </c>
       <c r="P28" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.787</v>
+        <v>0.788</v>
       </c>
       <c r="R28" t="n">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="S28" t="n">
-        <v>33.8</v>
+        <v>33.7</v>
       </c>
       <c r="T28" t="n">
-        <v>42.9</v>
+        <v>42.6</v>
       </c>
       <c r="U28" t="n">
-        <v>25.1</v>
+        <v>24.9</v>
       </c>
       <c r="V28" t="n">
         <v>14.8</v>
@@ -5458,7 +5525,7 @@
         <v>7.4</v>
       </c>
       <c r="X28" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Y28" t="n">
         <v>4.7</v>
@@ -5467,16 +5534,16 @@
         <v>18.1</v>
       </c>
       <c r="AA28" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="AB28" t="n">
-        <v>104.8</v>
+        <v>104.6</v>
       </c>
       <c r="AC28" t="n">
-        <v>7.1</v>
+        <v>6.7</v>
       </c>
       <c r="AD28" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AE28" t="n">
         <v>1</v>
@@ -5494,7 +5561,7 @@
         <v>1</v>
       </c>
       <c r="AJ28" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AK28" t="n">
         <v>2</v>
@@ -5512,7 +5579,7 @@
         <v>27</v>
       </c>
       <c r="AP28" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AQ28" t="n">
         <v>4</v>
@@ -5521,7 +5588,7 @@
         <v>27</v>
       </c>
       <c r="AS28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT28" t="n">
         <v>17</v>
@@ -5545,13 +5612,13 @@
         <v>1</v>
       </c>
       <c r="BA28" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BB28" t="n">
         <v>7</v>
       </c>
       <c r="BC28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-14-2013-14</t>
+          <t>2014-03-14</t>
         </is>
       </c>
     </row>
@@ -5580,16 +5647,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E29" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F29" t="n">
         <v>27</v>
       </c>
       <c r="G29" t="n">
-        <v>0.578</v>
+        <v>0.571</v>
       </c>
       <c r="H29" t="n">
         <v>48.6</v>
@@ -5598,19 +5665,19 @@
         <v>36.3</v>
       </c>
       <c r="J29" t="n">
-        <v>82</v>
+        <v>82.2</v>
       </c>
       <c r="K29" t="n">
-        <v>0.443</v>
+        <v>0.442</v>
       </c>
       <c r="L29" t="n">
         <v>8.4</v>
       </c>
       <c r="M29" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="N29" t="n">
-        <v>0.369</v>
+        <v>0.368</v>
       </c>
       <c r="O29" t="n">
         <v>19.2</v>
@@ -5619,28 +5686,28 @@
         <v>24.7</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.777</v>
+        <v>0.776</v>
       </c>
       <c r="R29" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="S29" t="n">
         <v>31.4</v>
       </c>
       <c r="T29" t="n">
-        <v>43</v>
+        <v>43.1</v>
       </c>
       <c r="U29" t="n">
         <v>21.3</v>
       </c>
       <c r="V29" t="n">
-        <v>14.3</v>
+        <v>14.2</v>
       </c>
       <c r="W29" t="n">
         <v>7</v>
       </c>
       <c r="X29" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Y29" t="n">
         <v>4.4</v>
@@ -5655,7 +5722,7 @@
         <v>100.3</v>
       </c>
       <c r="AC29" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="AD29" t="n">
         <v>26</v>
@@ -5664,7 +5731,7 @@
         <v>11</v>
       </c>
       <c r="AF29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG29" t="n">
         <v>11</v>
@@ -5679,7 +5746,7 @@
         <v>20</v>
       </c>
       <c r="AK29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL29" t="n">
         <v>9</v>
@@ -5694,7 +5761,7 @@
         <v>7</v>
       </c>
       <c r="AP29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AQ29" t="n">
         <v>8</v>
@@ -5703,10 +5770,10 @@
         <v>12</v>
       </c>
       <c r="AS29" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AT29" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AU29" t="n">
         <v>17</v>
@@ -5721,7 +5788,7 @@
         <v>22</v>
       </c>
       <c r="AY29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ29" t="n">
         <v>29</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-14-2013-14</t>
+          <t>2014-03-14</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E30" t="n">
         <v>22</v>
       </c>
       <c r="F30" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G30" t="n">
-        <v>0.333</v>
+        <v>0.338</v>
       </c>
       <c r="H30" t="n">
         <v>48.2</v>
@@ -5789,34 +5856,34 @@
         <v>6.8</v>
       </c>
       <c r="M30" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="N30" t="n">
-        <v>0.353</v>
+        <v>0.352</v>
       </c>
       <c r="O30" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="P30" t="n">
-        <v>21.7</v>
+        <v>21.9</v>
       </c>
       <c r="Q30" t="n">
         <v>0.748</v>
       </c>
       <c r="R30" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="S30" t="n">
         <v>30.6</v>
       </c>
       <c r="T30" t="n">
-        <v>41.5</v>
+        <v>41.6</v>
       </c>
       <c r="U30" t="n">
         <v>20</v>
       </c>
       <c r="V30" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="W30" t="n">
         <v>6.8</v>
@@ -5831,16 +5898,16 @@
         <v>20.8</v>
       </c>
       <c r="AA30" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AB30" t="n">
-        <v>94.7</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="AC30" t="n">
         <v>-6</v>
       </c>
       <c r="AD30" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE30" t="n">
         <v>25</v>
@@ -5852,16 +5919,16 @@
         <v>25</v>
       </c>
       <c r="AH30" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI30" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ30" t="n">
         <v>25</v>
       </c>
       <c r="AK30" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL30" t="n">
         <v>21</v>
@@ -5870,10 +5937,10 @@
         <v>23</v>
       </c>
       <c r="AN30" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO30" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AP30" t="n">
         <v>21</v>
@@ -5894,7 +5961,7 @@
         <v>28</v>
       </c>
       <c r="AV30" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW30" t="n">
         <v>27</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-14-2013-14</t>
+          <t>2014-03-14</t>
         </is>
       </c>
     </row>
@@ -5944,19 +6011,19 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E31" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F31" t="n">
         <v>31</v>
       </c>
       <c r="G31" t="n">
-        <v>0.523</v>
+        <v>0.516</v>
       </c>
       <c r="H31" t="n">
-        <v>49</v>
+        <v>48.9</v>
       </c>
       <c r="I31" t="n">
         <v>38.6</v>
@@ -5965,55 +6032,55 @@
         <v>84.8</v>
       </c>
       <c r="K31" t="n">
-        <v>0.455</v>
+        <v>0.456</v>
       </c>
       <c r="L31" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="M31" t="n">
         <v>20.8</v>
       </c>
       <c r="N31" t="n">
-        <v>0.387</v>
+        <v>0.386</v>
       </c>
       <c r="O31" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="P31" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.729</v>
+        <v>0.727</v>
       </c>
       <c r="R31" t="n">
         <v>11</v>
       </c>
       <c r="S31" t="n">
-        <v>31.5</v>
+        <v>31.3</v>
       </c>
       <c r="T31" t="n">
-        <v>42.5</v>
+        <v>42.3</v>
       </c>
       <c r="U31" t="n">
         <v>23.3</v>
       </c>
       <c r="V31" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="W31" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="X31" t="n">
         <v>4.7</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Z31" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AA31" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="AB31" t="n">
         <v>100.5</v>
@@ -6022,7 +6089,7 @@
         <v>0.6</v>
       </c>
       <c r="AD31" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AE31" t="n">
         <v>14</v>
@@ -6037,13 +6104,13 @@
         <v>1</v>
       </c>
       <c r="AI31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ31" t="n">
         <v>8</v>
       </c>
       <c r="AK31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL31" t="n">
         <v>15</v>
@@ -6058,16 +6125,16 @@
         <v>28</v>
       </c>
       <c r="AP31" t="n">
+        <v>27</v>
+      </c>
+      <c r="AQ31" t="n">
         <v>26</v>
-      </c>
-      <c r="AQ31" t="n">
-        <v>25</v>
       </c>
       <c r="AR31" t="n">
         <v>18</v>
       </c>
       <c r="AS31" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AT31" t="n">
         <v>18</v>
@@ -6076,7 +6143,7 @@
         <v>7</v>
       </c>
       <c r="AV31" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AW31" t="n">
         <v>10</v>
@@ -6091,7 +6158,7 @@
         <v>16</v>
       </c>
       <c r="BA31" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="BB31" t="n">
         <v>16</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-14-2013-14</t>
+          <t>2014-03-14</t>
         </is>
       </c>
     </row>
